--- a/App_Templates/ProductivityReportTemplate.xlsx
+++ b/App_Templates/ProductivityReportTemplate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19155" windowHeight="9015" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19155" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
-    <pivotCache cacheId="6" r:id="rId9"/>
-    <pivotCache cacheId="9" r:id="rId10"/>
+    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId8"/>
+    <pivotCache cacheId="16" r:id="rId9"/>
+    <pivotCache cacheId="19" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1594,7 +1594,19 @@
     <cellStyle name="Warning Text 2" xfId="125"/>
     <cellStyle name="Warning Text 3" xfId="56"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1705,7 +1717,103 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="0639 Harish Kumar" refreshedDate="43235.750561574074" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="4">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="lalit" refreshedDate="44059.694181365739" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="4">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A4:D47832" sheet="NO HRS ENTRY"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="PROJECT" numFmtId="0">
+      <sharedItems containsNonDate="0" containsBlank="1" count="68">
+        <m/>
+        <s v="JB0933" u="1"/>
+        <s v="JB0928" u="1"/>
+        <s v="JB0908" u="1"/>
+        <s v="JB0961" u="1"/>
+        <s v="JB0956" u="1"/>
+        <s v="JB0941" u="1"/>
+        <s v="JB0936" u="1"/>
+        <s v="JB0921" u="1"/>
+        <s v="JG5813" u="1"/>
+        <s v="JB0959" u="1"/>
+        <s v="JB0875" u="1"/>
+        <s v="JB0944" u="1"/>
+        <s v="JB0939" u="1"/>
+        <s v="JB0924" u="1"/>
+        <s v="JB0919" u="1"/>
+        <s v="JG5864" u="1"/>
+        <s v="JB0947" u="1"/>
+        <s v="JB0932" u="1"/>
+        <s v="JB0927" u="1"/>
+        <s v="JB0912" u="1"/>
+        <s v="JB0907" u="1"/>
+        <s v="JB0960" u="1"/>
+        <s v="JB0955" u="1"/>
+        <s v="JB0940" u="1"/>
+        <s v="JB0935" u="1"/>
+        <s v="JG5827" u="1"/>
+        <s v="JB0915" u="1"/>
+        <s v="JB0900" u="1"/>
+        <s v="JB0963" u="1"/>
+        <s v="JG5791" u="1"/>
+        <s v="JB0958" u="1"/>
+        <s v="JB0943" u="1"/>
+        <s v="JB0869" u="1"/>
+        <s v="JB0938" u="1"/>
+        <s v="JB0854" u="1"/>
+        <s v="JB0923" u="1"/>
+        <s v="JG5820" u="1"/>
+        <s v="JB0918" u="1"/>
+        <s v="JB0951" u="1"/>
+        <s v="JG5858" u="1"/>
+        <s v="JB0946" u="1"/>
+        <s v="JB0926" u="1"/>
+        <s v="JB0906" u="1"/>
+        <s v="JG5866" u="1"/>
+        <s v="JB0885" u="1"/>
+        <s v="JB0954" u="1"/>
+        <s v="JB0949" u="1"/>
+        <s v="JB0845" u="1"/>
+        <s v="JB0909" u="1"/>
+        <s v="JB0962" u="1"/>
+        <s v="JG5790" u="1"/>
+        <s v="JB0957" u="1"/>
+        <s v="JB0942" u="1"/>
+        <s v="JB0937" u="1"/>
+        <s v="JB0922" u="1"/>
+        <s v="JB0917" u="1"/>
+        <s v="JB0833" u="1"/>
+        <s v="JG5730" u="1"/>
+        <s v="JB0896" u="1"/>
+        <s v="JB0950" u="1"/>
+        <s v="JB0930" u="1"/>
+        <s v="JG5837" u="1"/>
+        <s v="JB0925" u="1"/>
+        <s v="JG5822" u="1"/>
+        <s v="JB0905" u="1"/>
+        <s v="JB0953" u="1"/>
+        <s v="JB0948" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="DOCUMENT" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="REVISION" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="RELEASE DATE" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="lalit" refreshedDate="44059.694181481478" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="4">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:D48685" sheet="NOT ISSUED"/>
   </cacheSource>
@@ -1713,26 +1821,6 @@
     <cacheField name="PROJECT" numFmtId="0">
       <sharedItems containsNonDate="0" containsBlank="1" count="80">
         <m/>
-        <s v="JB0962" u="1"/>
-        <s v="JG5790" u="1"/>
-        <s v="JB0942" u="1"/>
-        <s v="JB0937" u="1"/>
-        <s v="JB0853" u="1"/>
-        <s v="JB0922" u="1"/>
-        <s v="JB0917" u="1"/>
-        <s v="JB0833" u="1"/>
-        <s v="JB0902" u="1"/>
-        <s v="JG5730" u="1"/>
-        <s v="JB0896" u="1"/>
-        <s v="JB0950" u="1"/>
-        <s v="JB0945" u="1"/>
-        <s v="JB0930" u="1"/>
-        <s v="JG5837" u="1"/>
-        <s v="JB0925" u="1"/>
-        <s v="JG5822" u="1"/>
-        <s v="JB0905" u="1"/>
-        <s v="JB0953" u="1"/>
-        <s v="JB0948" u="1"/>
         <s v="JG5845" u="1"/>
         <s v="JB0933" u="1"/>
         <s v="JB0859" u="1"/>
@@ -1792,46 +1880,19 @@
         <s v="JB0845" u="1"/>
         <s v="JG5811" u="1"/>
         <s v="JB0909" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DOCUMENT" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="REVISION" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="RELEASE DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="0639 Harish Kumar" refreshedDate="43235.750561689812" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="4">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A4:D47832" sheet="NO HRS ENTRY"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="PROJECT" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="68">
-        <m/>
         <s v="JB0962" u="1"/>
         <s v="JG5790" u="1"/>
-        <s v="JB0957" u="1"/>
         <s v="JB0942" u="1"/>
         <s v="JB0937" u="1"/>
+        <s v="JB0853" u="1"/>
         <s v="JB0922" u="1"/>
         <s v="JB0917" u="1"/>
         <s v="JB0833" u="1"/>
+        <s v="JB0902" u="1"/>
         <s v="JG5730" u="1"/>
         <s v="JB0896" u="1"/>
         <s v="JB0950" u="1"/>
+        <s v="JB0945" u="1"/>
         <s v="JB0930" u="1"/>
         <s v="JG5837" u="1"/>
         <s v="JB0925" u="1"/>
@@ -1839,55 +1900,6 @@
         <s v="JB0905" u="1"/>
         <s v="JB0953" u="1"/>
         <s v="JB0948" u="1"/>
-        <s v="JB0933" u="1"/>
-        <s v="JB0928" u="1"/>
-        <s v="JB0908" u="1"/>
-        <s v="JB0961" u="1"/>
-        <s v="JB0956" u="1"/>
-        <s v="JB0941" u="1"/>
-        <s v="JB0936" u="1"/>
-        <s v="JB0921" u="1"/>
-        <s v="JG5813" u="1"/>
-        <s v="JB0959" u="1"/>
-        <s v="JB0875" u="1"/>
-        <s v="JB0944" u="1"/>
-        <s v="JB0939" u="1"/>
-        <s v="JB0924" u="1"/>
-        <s v="JB0919" u="1"/>
-        <s v="JG5864" u="1"/>
-        <s v="JB0947" u="1"/>
-        <s v="JB0932" u="1"/>
-        <s v="JB0927" u="1"/>
-        <s v="JB0912" u="1"/>
-        <s v="JB0907" u="1"/>
-        <s v="JB0960" u="1"/>
-        <s v="JB0955" u="1"/>
-        <s v="JB0940" u="1"/>
-        <s v="JB0935" u="1"/>
-        <s v="JG5827" u="1"/>
-        <s v="JB0915" u="1"/>
-        <s v="JB0900" u="1"/>
-        <s v="JB0963" u="1"/>
-        <s v="JG5791" u="1"/>
-        <s v="JB0958" u="1"/>
-        <s v="JB0943" u="1"/>
-        <s v="JB0869" u="1"/>
-        <s v="JB0938" u="1"/>
-        <s v="JB0854" u="1"/>
-        <s v="JB0923" u="1"/>
-        <s v="JG5820" u="1"/>
-        <s v="JB0918" u="1"/>
-        <s v="JB0951" u="1"/>
-        <s v="JG5858" u="1"/>
-        <s v="JB0946" u="1"/>
-        <s v="JB0926" u="1"/>
-        <s v="JB0906" u="1"/>
-        <s v="JG5866" u="1"/>
-        <s v="JB0885" u="1"/>
-        <s v="JB0954" u="1"/>
-        <s v="JB0949" u="1"/>
-        <s v="JB0845" u="1"/>
-        <s v="JB0909" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DOCUMENT" numFmtId="0">
@@ -30348,7 +30360,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:I6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -30395,78 +30407,78 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="PROJECT">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="PROJECT">
   <location ref="D3:E5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="69">
+        <item m="1" x="57"/>
+        <item m="1" x="48"/>
+        <item m="1" x="35"/>
+        <item m="1" x="33"/>
+        <item m="1" x="11"/>
+        <item m="1" x="45"/>
+        <item m="1" x="59"/>
+        <item m="1" x="28"/>
+        <item m="1" x="65"/>
+        <item m="1" x="43"/>
+        <item m="1" x="21"/>
+        <item m="1" x="3"/>
+        <item m="1" x="49"/>
+        <item m="1" x="20"/>
+        <item m="1" x="27"/>
+        <item m="1" x="56"/>
+        <item m="1" x="38"/>
+        <item m="1" x="15"/>
         <item m="1" x="8"/>
+        <item m="1" x="55"/>
+        <item m="1" x="36"/>
+        <item m="1" x="14"/>
+        <item m="1" x="63"/>
+        <item m="1" x="42"/>
+        <item m="1" x="19"/>
+        <item m="1" x="2"/>
+        <item m="1" x="61"/>
+        <item m="1" x="18"/>
+        <item m="1" x="1"/>
+        <item m="1" x="25"/>
+        <item m="1" x="7"/>
+        <item m="1" x="54"/>
+        <item m="1" x="34"/>
+        <item m="1" x="13"/>
+        <item m="1" x="24"/>
+        <item m="1" x="6"/>
+        <item m="1" x="53"/>
+        <item m="1" x="32"/>
+        <item m="1" x="12"/>
+        <item m="1" x="41"/>
+        <item m="1" x="17"/>
+        <item m="1" x="67"/>
+        <item m="1" x="47"/>
+        <item m="1" x="60"/>
+        <item m="1" x="39"/>
         <item m="1" x="66"/>
-        <item m="1" x="53"/>
-        <item m="1" x="51"/>
-        <item m="1" x="29"/>
-        <item m="1" x="63"/>
-        <item m="1" x="10"/>
         <item m="1" x="46"/>
-        <item m="1" x="16"/>
-        <item m="1" x="61"/>
-        <item m="1" x="39"/>
-        <item m="1" x="21"/>
-        <item m="1" x="67"/>
-        <item m="1" x="38"/>
-        <item m="1" x="45"/>
-        <item m="1" x="7"/>
-        <item m="1" x="56"/>
-        <item m="1" x="33"/>
-        <item m="1" x="26"/>
-        <item m="1" x="6"/>
-        <item m="1" x="54"/>
-        <item m="1" x="32"/>
-        <item m="1" x="14"/>
-        <item m="1" x="60"/>
-        <item m="1" x="37"/>
-        <item m="1" x="20"/>
-        <item m="1" x="12"/>
-        <item m="1" x="36"/>
-        <item m="1" x="19"/>
-        <item m="1" x="43"/>
-        <item m="1" x="25"/>
+        <item m="1" x="23"/>
         <item m="1" x="5"/>
         <item m="1" x="52"/>
         <item m="1" x="31"/>
-        <item m="1" x="42"/>
-        <item m="1" x="24"/>
+        <item m="1" x="10"/>
+        <item m="1" x="22"/>
         <item m="1" x="4"/>
         <item m="1" x="50"/>
+        <item m="1" x="29"/>
+        <item m="1" x="58"/>
+        <item m="1" x="51"/>
         <item m="1" x="30"/>
-        <item m="1" x="59"/>
-        <item m="1" x="35"/>
-        <item m="1" x="18"/>
-        <item m="1" x="65"/>
-        <item m="1" x="11"/>
-        <item m="1" x="57"/>
-        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item m="1" x="37"/>
         <item m="1" x="64"/>
-        <item m="1" x="41"/>
-        <item m="1" x="23"/>
-        <item m="1" x="3"/>
-        <item m="1" x="49"/>
-        <item m="1" x="28"/>
+        <item m="1" x="26"/>
+        <item m="1" x="62"/>
         <item m="1" x="40"/>
-        <item m="1" x="22"/>
-        <item m="1" x="1"/>
-        <item m="1" x="47"/>
-        <item m="1" x="9"/>
-        <item m="1" x="2"/>
-        <item m="1" x="48"/>
-        <item m="1" x="27"/>
-        <item m="1" x="55"/>
-        <item m="1" x="15"/>
+        <item m="1" x="16"/>
         <item m="1" x="44"/>
-        <item m="1" x="13"/>
-        <item m="1" x="58"/>
-        <item m="1" x="34"/>
-        <item m="1" x="62"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -30493,10 +30505,10 @@
     <dataField name="HRS ENTRY NOT FOUND FOR DOCUMENTS" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -30505,90 +30517,90 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="PROJECT">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="PROJECT">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="81">
+        <item m="1" x="22"/>
+        <item m="1" x="6"/>
+        <item m="1" x="46"/>
+        <item m="1" x="67"/>
+        <item m="1" x="57"/>
+        <item m="1" x="64"/>
+        <item m="1" x="19"/>
+        <item m="1" x="3"/>
+        <item m="1" x="18"/>
+        <item m="1" x="32"/>
+        <item m="1" x="41"/>
+        <item m="1" x="55"/>
+        <item m="1" x="15"/>
+        <item m="1" x="52"/>
+        <item m="1" x="28"/>
+        <item m="1" x="37"/>
+        <item m="1" x="70"/>
+        <item m="1" x="36"/>
+        <item m="1" x="68"/>
+        <item m="1" x="77"/>
+        <item m="1" x="51"/>
+        <item m="1" x="27"/>
+        <item m="1" x="5"/>
+        <item m="1" x="59"/>
+        <item m="1" x="26"/>
+        <item m="1" x="35"/>
+        <item m="1" x="66"/>
+        <item m="1" x="45"/>
+        <item m="1" x="21"/>
+        <item m="1" x="12"/>
+        <item m="1" x="65"/>
+        <item m="1" x="43"/>
+        <item m="1" x="20"/>
+        <item m="1" x="75"/>
+        <item m="1" x="50"/>
+        <item m="1" x="4"/>
+        <item m="1" x="56"/>
+        <item m="1" x="73"/>
+        <item m="1" x="25"/>
+        <item m="1" x="2"/>
+        <item m="1" x="33"/>
+        <item m="1" x="11"/>
+        <item m="1" x="63"/>
         <item m="1" x="42"/>
-        <item m="1" x="26"/>
-        <item m="1" x="66"/>
-        <item m="1" x="8"/>
-        <item m="1" x="77"/>
-        <item m="1" x="5"/>
-        <item m="1" x="39"/>
-        <item m="1" x="23"/>
-        <item m="1" x="38"/>
-        <item m="1" x="52"/>
-        <item m="1" x="61"/>
-        <item m="1" x="75"/>
-        <item m="1" x="35"/>
+        <item m="1" x="17"/>
+        <item m="1" x="31"/>
+        <item m="1" x="10"/>
+        <item m="1" x="62"/>
+        <item m="1" x="40"/>
+        <item m="1" x="16"/>
         <item m="1" x="72"/>
-        <item m="1" x="48"/>
-        <item m="1" x="57"/>
-        <item m="1" x="11"/>
-        <item m="1" x="56"/>
-        <item m="1" x="9"/>
-        <item m="1" x="18"/>
+        <item m="1" x="49"/>
+        <item m="1" x="24"/>
+        <item m="1" x="79"/>
+        <item m="1" x="54"/>
         <item m="1" x="71"/>
         <item m="1" x="47"/>
-        <item m="1" x="25"/>
-        <item m="1" x="79"/>
-        <item m="1" x="46"/>
-        <item m="1" x="55"/>
+        <item m="1" x="78"/>
+        <item m="1" x="53"/>
+        <item m="1" x="30"/>
+        <item m="1" x="9"/>
+        <item m="1" x="39"/>
+        <item m="1" x="14"/>
+        <item m="1" x="29"/>
         <item m="1" x="7"/>
-        <item m="1" x="65"/>
-        <item m="1" x="41"/>
-        <item m="1" x="32"/>
-        <item m="1" x="6"/>
-        <item m="1" x="63"/>
-        <item m="1" x="40"/>
-        <item m="1" x="16"/>
-        <item m="1" x="70"/>
-        <item m="1" x="24"/>
+        <item m="1" x="60"/>
+        <item m="1" x="38"/>
+        <item m="1" x="69"/>
+        <item m="1" x="61"/>
+        <item m="1" x="8"/>
+        <item m="1" x="58"/>
+        <item m="1" x="13"/>
+        <item m="1" x="44"/>
         <item m="1" x="76"/>
-        <item m="1" x="14"/>
-        <item m="1" x="45"/>
-        <item m="1" x="22"/>
-        <item m="1" x="53"/>
-        <item m="1" x="31"/>
-        <item m="1" x="4"/>
-        <item m="1" x="62"/>
-        <item m="1" x="37"/>
-        <item m="1" x="51"/>
-        <item m="1" x="30"/>
-        <item m="1" x="3"/>
-        <item m="1" x="60"/>
-        <item m="1" x="36"/>
-        <item m="1" x="13"/>
-        <item m="1" x="69"/>
-        <item m="1" x="44"/>
-        <item m="1" x="20"/>
+        <item m="1" x="34"/>
         <item m="1" x="74"/>
-        <item m="1" x="12"/>
-        <item m="1" x="67"/>
-        <item m="1" x="19"/>
-        <item m="1" x="73"/>
-        <item m="1" x="50"/>
-        <item m="1" x="29"/>
-        <item m="1" x="59"/>
-        <item m="1" x="34"/>
-        <item m="1" x="49"/>
-        <item m="1" x="27"/>
         <item m="1" x="1"/>
-        <item m="1" x="58"/>
-        <item m="1" x="10"/>
-        <item m="1" x="2"/>
-        <item m="1" x="28"/>
-        <item m="1" x="78"/>
-        <item m="1" x="33"/>
-        <item m="1" x="64"/>
-        <item m="1" x="17"/>
-        <item m="1" x="54"/>
-        <item m="1" x="15"/>
-        <item m="1" x="21"/>
-        <item m="1" x="68"/>
-        <item m="1" x="43"/>
+        <item m="1" x="48"/>
+        <item m="1" x="23"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -30615,10 +30627,10 @@
     <dataField name="DOCUMENTS NOT ISSUED" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -30627,7 +30639,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -30679,7 +30691,7 @@
     <dataField name="Count of DOCUMENT" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -30981,9 +30993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW1423"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -31021,7 +31033,7 @@
       <c r="B2" s="34"/>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(E6:E9)</f>
@@ -31031,7 +31043,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="61" t="e">
-        <f>E2/E3</f>
+        <f>E3/E2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -31042,7 +31054,7 @@
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(F6:F9)</f>
@@ -40697,7 +40709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
